--- a/Consumer/Coca Cola.xlsx
+++ b/Consumer/Coca Cola.xlsx
@@ -5,31 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D21305-6CD9-6B49-A4AE-2E54690A4726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10AF48-7978-1949-8E4D-0A7B42549880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -329,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Coca Cola</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -878,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -942,18 +962,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -963,10 +971,6 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -990,12 +994,6 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1007,10 +1005,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1020,6 +1014,26 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2395,6 +2409,425 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1wljc&amp;q=XNYS%3aKO&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1wljc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>67.2</v>
+    <v>54.015000000000001</v>
+    <v>0.54549999999999998</v>
+    <v>0.04</v>
+    <v>6.3689999999999992E-4</v>
+    <v>USD</v>
+    <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Global Ventures; and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Coca-Cola; sparkling flavors; water, sports, coffee and tea; juice, dairy and plant-based beverages; and emerging beverages. It owns and markets six nonalcoholic sparkling soft drink brands, such as Coca-Cola, Sprite, Fanta, Diet Coke /Coca-Cola Light, and Coca-Cola Zero Sugar. Its water, sports, coffee and tea brands include quarius, Ayataka, BODYARMOR, Ciel, Costa, dogadan, Dasani, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Powerade and others. The Company’s juice, dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply. The Company products are available to consumers in more than 200 countries.</v>
+    <v>82500</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
+    <v>63.039900000000003</v>
+    <v>Beverages</v>
+    <v>Stock</v>
+    <v>45022.999828008593</v>
+    <v>0</v>
+    <v>62.38</v>
+    <v>271865000000</v>
+    <v>THE COCA-COLA COMPANY</v>
+    <v>THE COCA-COLA COMPANY</v>
+    <v>62.86</v>
+    <v>28.648700000000002</v>
+    <v>62.8</v>
+    <v>62.84</v>
+    <v>4326306000</v>
+    <v>KO</v>
+    <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
+    <v>1115</v>
+    <v>14348792</v>
+    <v>1919</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="42">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+    </spb>
+    <spb s="4">
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2695,10 +3128,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT140" sqref="AT140"/>
+      <selection pane="bottomRight" activeCell="AQ99" sqref="AQ99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2709,8 +3142,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1985</v>
@@ -3106,21 +3539,21 @@
         <v>54054000000</v>
       </c>
       <c r="AS3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AV3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AV3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3546,16 +3979,16 @@
         <v>25004000000</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AV6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -3814,7 +4247,7 @@
     </row>
     <row r="9" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3969,16 +4402,16 @@
         <v>0</v>
       </c>
       <c r="AS9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AV9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4354,21 +4787,21 @@
         <v>12880000000</v>
       </c>
       <c r="AS12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AU12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AV12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4777,16 +5210,16 @@
         <v>14095000000</v>
       </c>
       <c r="AS15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AU15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AV15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -4913,15 +5346,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>6.2185094409822339</v>
+        <v>6.3218537810436235</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>28.025652902955354</v>
+        <v>28.491406413749736</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>28.04916928886092</v>
+        <v>28.515313614432557</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5162,7 +5595,7 @@
         <v>1260000000</v>
       </c>
       <c r="AS18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -5290,7 +5723,7 @@
     </row>
     <row r="20" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -6396,7 +6829,7 @@
     </row>
     <row r="29" spans="1:45" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -7145,7 +7578,7 @@
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -12535,7 +12968,7 @@
     </row>
     <row r="80" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:AM80" si="12">B79/B3</f>
@@ -13046,10 +13479,10 @@
       <c r="AM83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT83" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU83" s="34"/>
+      <c r="AT83" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU83" s="63"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13169,10 +13602,10 @@
       <c r="AM84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT84" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU84" s="36"/>
+      <c r="AT84" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU84" s="65"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13293,7 +13726,7 @@
         <v>92</v>
       </c>
       <c r="AT85" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AU85" s="24">
         <f>AM17</f>
@@ -13419,7 +13852,7 @@
         <v>558000000</v>
       </c>
       <c r="AT86" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AU86" s="24">
         <f>AM56</f>
@@ -13545,7 +13978,7 @@
         <v>11018000000</v>
       </c>
       <c r="AT87" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AU87" s="24">
         <f>AM61</f>
@@ -13670,17 +14103,17 @@
       <c r="AM88" s="1">
         <v>-1484000000</v>
       </c>
-      <c r="AT88" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU88" s="38">
+      <c r="AT88" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU88" s="34">
         <f>AU85/(AU86+AU87)</f>
         <v>2.2529311093514522E-2</v>
       </c>
     </row>
     <row r="89" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:AM89" si="13">(-1*B88)/B3</f>
@@ -13835,7 +14268,7 @@
         <v>3.4508417821597991E-2</v>
       </c>
       <c r="AT89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU89" s="24">
         <f>AM27</f>
@@ -14086,10 +14519,10 @@
       <c r="AM91" s="1">
         <v>-3751000000</v>
       </c>
-      <c r="AT91" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU91" s="38">
+      <c r="AT91" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU91" s="34">
         <f>AU89/AU90</f>
         <v>0.18098579496833819</v>
       </c>
@@ -14212,10 +14645,10 @@
       <c r="AM92" s="1">
         <v>4771000000</v>
       </c>
-      <c r="AT92" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU92" s="40">
+      <c r="AT92" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU92" s="36">
         <f>AU88*(1-AU91)</f>
         <v>1.8451825815165794E-2</v>
       </c>
@@ -14338,10 +14771,10 @@
       <c r="AM93" s="1">
         <v>-684000000</v>
       </c>
-      <c r="AT93" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU93" s="36"/>
+      <c r="AT93" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU93" s="65"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14462,9 +14895,9 @@
         <v>-763000000</v>
       </c>
       <c r="AT94" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU94" s="41">
+        <v>135</v>
+      </c>
+      <c r="AU94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -14586,11 +15019,12 @@
       <c r="AM95" s="1">
         <v>-4930000000</v>
       </c>
-      <c r="AT95" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU95" s="43">
-        <v>0.54</v>
+      <c r="AT95" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU95" s="58" cm="1">
+        <f t="array" ref="AU95">_FV(A1,"Beta")</f>
+        <v>0.54549999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -14712,9 +15146,9 @@
         <v>837000000</v>
       </c>
       <c r="AT96" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU96" s="41">
+        <v>137</v>
+      </c>
+      <c r="AU96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14836,12 +15270,12 @@
       <c r="AM97" s="1">
         <v>-1418000000</v>
       </c>
-      <c r="AT97" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU97" s="40">
+      <c r="AT97" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.4197000000000004E-2</v>
+        <v>6.4433774999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -14962,10 +15396,10 @@
       <c r="AM98" s="1">
         <v>-7616000000</v>
       </c>
-      <c r="AT98" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU98" s="36"/>
+      <c r="AT98" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU98" s="65"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15086,7 +15520,7 @@
         <v>2877000000</v>
       </c>
       <c r="AT99" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AU99" s="24">
         <f>AU86+AU87</f>
@@ -15211,12 +15645,12 @@
       <c r="AM100" s="10">
         <v>-10250000000</v>
       </c>
-      <c r="AT100" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU100" s="38">
+      <c r="AT100" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.12770012752072302</v>
+        <v>0.12587536252387352</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15337,12 +15771,12 @@
       <c r="AM101" s="1">
         <v>-205000000</v>
       </c>
-      <c r="AT101" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU101" s="58">
-        <f>AO116*AM34</f>
-        <v>267420780000</v>
+      <c r="AT101" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU101" s="50" cm="1">
+        <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
+        <v>271865000000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15463,12 +15897,12 @@
       <c r="AM102" s="10">
         <v>-200000000</v>
       </c>
-      <c r="AT102" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU102" s="38">
+      <c r="AT102" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.87229987247927698</v>
+        <v>0.87412463747612645</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15589,12 +16023,12 @@
       <c r="AM103" s="1">
         <v>10025000000</v>
       </c>
-      <c r="AT103" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU103" s="44">
+      <c r="AT103" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>306569780000</v>
+        <v>311014000000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15715,14 +16149,14 @@
       <c r="AM104" s="11">
         <v>9825000000</v>
       </c>
-      <c r="AT104" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU104" s="36"/>
+      <c r="AT104" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU104" s="65"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -15880,11 +16314,11 @@
       <c r="AR105" s="15"/>
       <c r="AS105" s="15"/>
       <c r="AT105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.835533542313899E-2</v>
+        <v>5.864578047680466E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16005,33 +16439,33 @@
       <c r="AM106" s="1">
         <v>9534000000</v>
       </c>
-      <c r="AN106" s="45">
+      <c r="AN106" s="39">
         <f>AM106*(1+$AU$106)</f>
         <v>9980308058.8583813</v>
       </c>
-      <c r="AO106" s="45">
+      <c r="AO106" s="39">
         <f t="shared" ref="AO106:AR106" si="17">AN106*(1+$AU$106)</f>
         <v>10447508805.298254</v>
       </c>
-      <c r="AP106" s="45">
+      <c r="AP106" s="39">
         <f t="shared" si="17"/>
         <v>10936580273.181463</v>
       </c>
-      <c r="AQ106" s="45">
+      <c r="AQ106" s="39">
         <f t="shared" si="17"/>
         <v>11448546280.342411</v>
       </c>
-      <c r="AR106" s="45">
+      <c r="AR106" s="39">
         <f t="shared" si="17"/>
         <v>11984478571.839155</v>
       </c>
-      <c r="AS106" s="46" t="s">
+      <c r="AS106" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT106" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="AT106" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU106" s="48">
+      <c r="AU106" s="42">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>4.6812257065070376E-2</v>
       </c>
@@ -16076,150 +16510,151 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="46"/>
-      <c r="AO107" s="46"/>
-      <c r="AP107" s="46"/>
-      <c r="AQ107" s="46"/>
-      <c r="AR107" s="49">
+      <c r="AN107" s="40"/>
+      <c r="AO107" s="40"/>
+      <c r="AP107" s="40"/>
+      <c r="AQ107" s="40"/>
+      <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>368279628440.29791</v>
-      </c>
-      <c r="AS107" s="50" t="s">
+        <v>365100478040.73871</v>
+      </c>
+      <c r="AS107" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT107" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AT107" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU107" s="52">
+      <c r="AU107" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="49">
+      <c r="AN108" s="43">
         <f t="shared" ref="AN108:AP108" si="18">AN107+AN106</f>
         <v>9980308058.8583813</v>
       </c>
-      <c r="AO108" s="49">
+      <c r="AO108" s="43">
         <f t="shared" si="18"/>
         <v>10447508805.298254</v>
       </c>
-      <c r="AP108" s="49">
+      <c r="AP108" s="43">
         <f t="shared" si="18"/>
         <v>10936580273.181463</v>
       </c>
-      <c r="AQ108" s="49">
+      <c r="AQ108" s="43">
         <f>AQ107+AQ106</f>
         <v>11448546280.342411</v>
       </c>
-      <c r="AR108" s="49">
+      <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>380264107012.13708</v>
-      </c>
-      <c r="AS108" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT108" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU108" s="54">
+        <v>377084956612.57788</v>
+      </c>
+      <c r="AS108" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT108" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU108" s="48">
         <f>AU105</f>
-        <v>5.835533542313899E-2</v>
+        <v>5.864578047680466E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO109" s="56"/>
+      <c r="AN109" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO109" s="61"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO110" s="58">
+      <c r="AN110" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>323477638387.32666</v>
+        <v>320668833241.29193</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="AO111" s="58">
+      <c r="AN111" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO111" s="50">
         <f>AM40</f>
         <v>11631000000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO112" s="58">
+      <c r="AN112" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO112" s="50">
         <f>AU99</f>
         <v>39149000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO113" s="58">
+      <c r="AN113" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>295959638387.32666</v>
+        <v>293150833241.29193</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO114" s="59">
+      <c r="AN114" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO114" s="51">
         <f>AM34*(1+(5*AS16))</f>
         <v>4322108298.1662579</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO115" s="61">
+      <c r="AN115" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>68.475757193056353</v>
+        <v>67.825887973623225</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO116" s="63">
-        <v>61.86</v>
+      <c r="AN116" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO116" s="59" cm="1">
+        <f t="array" ref="AO116">_FV(A1,"Price")</f>
+        <v>62.84</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO117" s="65">
+      <c r="AN117" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>0.10694725497989577</v>
+        <v>7.9342583921439003E-2</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO118" s="66" t="str">
+      <c r="AN118" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO118" s="56" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/KO" display="ROIC.AI | KO" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Coca Cola.xlsx
+++ b/Consumer/Coca Cola.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10AF48-7978-1949-8E4D-0A7B42549880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2A77CF-43F0-EC4A-927B-530A3A495594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2529,11 +2535,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>67.2</v>
+    <v>66.38</v>
     <v>54.015000000000001</v>
-    <v>0.54549999999999998</v>
-    <v>0.04</v>
-    <v>6.3689999999999992E-4</v>
+    <v>0.54859999999999998</v>
+    <v>-0.53</v>
+    <v>-8.2920000000000008E-3</v>
+    <v>0.01</v>
+    <v>1.5779999999999999E-4</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Global Ventures; and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Coca-Cola; sparkling flavors; water, sports, coffee and tea; juice, dairy and plant-based beverages; and emerging beverages. It owns and markets six nonalcoholic sparkling soft drink brands, such as Coca-Cola, Sprite, Fanta, Diet Coke /Coca-Cola Light, and Coca-Cola Zero Sugar. Its water, sports, coffee and tea brands include quarius, Ayataka, BODYARMOR, Ciel, Costa, dogadan, Dasani, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Powerade and others. The Company’s juice, dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply. The Company products are available to consumers in more than 200 countries.</v>
     <v>82500</v>
@@ -2541,24 +2549,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
-    <v>63.039900000000003</v>
+    <v>63.75</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45022.999828008593</v>
+    <v>45055.997981250002</v>
     <v>0</v>
-    <v>62.38</v>
-    <v>271865000000</v>
+    <v>63.28</v>
+    <v>274134999420</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>62.86</v>
-    <v>28.648700000000002</v>
-    <v>62.8</v>
-    <v>62.84</v>
-    <v>4326306000</v>
+    <v>63.64</v>
+    <v>27.921900000000001</v>
+    <v>63.92</v>
+    <v>63.39</v>
+    <v>63.4</v>
+    <v>4324578000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>1115</v>
-    <v>14348792</v>
+    <v>9067653</v>
+    <v>10907857</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -2590,6 +2599,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2610,6 +2621,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2626,7 +2638,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2637,13 +2649,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2709,13 +2724,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2760,6 +2781,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2767,6 +2791,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3128,10 +3155,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ99" sqref="AQ99"/>
+      <selection pane="bottomRight" activeCell="AO102" sqref="AO102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5346,15 +5373,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>6.3218537810436235</v>
+        <v>6.3746395549251229</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>28.491406413749736</v>
+        <v>28.729301972332845</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>28.515313614432557</v>
+        <v>28.753408791692888</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13602,6 +13629,9 @@
       <c r="AM84" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="AQ84" t="s">
+        <v>160</v>
+      </c>
       <c r="AT84" s="64" t="s">
         <v>127</v>
       </c>
@@ -15024,7 +15054,7 @@
       </c>
       <c r="AU95" s="58" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.54549999999999998</v>
+        <v>0.54859999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15275,7 +15305,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.4433774999999999E-2</v>
+        <v>6.4567230000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15650,7 +15680,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.12587536252387352</v>
+        <v>0.12496329232414904</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15776,7 +15806,7 @@
       </c>
       <c r="AU101" s="50" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>271865000000</v>
+        <v>274134999420</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15897,12 +15927,15 @@
       <c r="AM102" s="10">
         <v>-200000000</v>
       </c>
+      <c r="AR102" t="s">
+        <v>161</v>
+      </c>
       <c r="AT102" s="33" t="s">
         <v>143</v>
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.87412463747612645</v>
+        <v>0.87503670767585096</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16028,7 +16061,7 @@
       </c>
       <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>311014000000</v>
+        <v>313283999420</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16318,7 +16351,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.864578047680466E-2</v>
+        <v>5.8804497266204278E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16516,7 +16549,7 @@
       <c r="AQ107" s="40"/>
       <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>365100478040.73871</v>
+        <v>363386280807.55505</v>
       </c>
       <c r="AS107" s="44" t="s">
         <v>148</v>
@@ -16547,7 +16580,7 @@
       </c>
       <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>377084956612.57788</v>
+        <v>375370759379.39423</v>
       </c>
       <c r="AS108" s="44" t="s">
         <v>144</v>
@@ -16557,7 +16590,7 @@
       </c>
       <c r="AU108" s="48">
         <f>AU105</f>
-        <v>5.864578047680466E-2</v>
+        <v>5.8804497266204278E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16572,7 +16605,7 @@
       </c>
       <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>320668833241.29193</v>
+        <v>319154333639.20569</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16599,7 +16632,7 @@
       </c>
       <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>293150833241.29193</v>
+        <v>291636333639.20569</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16617,7 +16650,7 @@
       </c>
       <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>67.825887973623225</v>
+        <v>67.475480372145768</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16626,7 +16659,7 @@
       </c>
       <c r="AO116" s="59" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>62.84</v>
+        <v>63.39</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16635,7 +16668,7 @@
       </c>
       <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>7.9342583921439003E-2</v>
+        <v>6.4449919106259079E-2</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Coca Cola.xlsx
+++ b/Consumer/Coca Cola.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2A77CF-43F0-EC4A-927B-530A3A495594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABC749B-E58E-5E40-8E90-21C6073A5BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2535,13 +2535,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>66.38</v>
+    <v>65.47</v>
     <v>54.015000000000001</v>
-    <v>0.54859999999999998</v>
-    <v>-0.53</v>
-    <v>-8.2920000000000008E-3</v>
-    <v>0.01</v>
-    <v>1.5779999999999999E-4</v>
+    <v>0.55330000000000001</v>
+    <v>-0.52500000000000002</v>
+    <v>-8.4880000000000008E-3</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Global Ventures; and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Coca-Cola; sparkling flavors; water, sports, coffee and tea; juice, dairy and plant-based beverages; and emerging beverages. It owns and markets six nonalcoholic sparkling soft drink brands, such as Coca-Cola, Sprite, Fanta, Diet Coke /Coca-Cola Light, and Coca-Cola Zero Sugar. Its water, sports, coffee and tea brands include quarius, Ayataka, BODYARMOR, Ciel, Costa, dogadan, Dasani, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Powerade and others. The Company’s juice, dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply. The Company products are available to consumers in more than 200 countries.</v>
     <v>82500</v>
@@ -2549,25 +2547,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
-    <v>63.75</v>
+    <v>61.97</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45055.997981250002</v>
+    <v>45100.783803738283</v>
     <v>0</v>
-    <v>63.28</v>
-    <v>274134999420</v>
+    <v>61.325000000000003</v>
+    <v>265204745850</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>63.64</v>
-    <v>27.921900000000001</v>
-    <v>63.92</v>
-    <v>63.39</v>
-    <v>63.4</v>
+    <v>61.94</v>
+    <v>27.243600000000001</v>
+    <v>61.85</v>
+    <v>61.325000000000003</v>
     <v>4324578000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>9067653</v>
-    <v>10907857</v>
+    <v>6525451</v>
+    <v>16278472</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -2599,8 +2596,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2621,7 +2616,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2638,7 +2632,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2649,16 +2643,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2724,19 +2715,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2781,9 +2766,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2791,9 +2773,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3158,7 +3137,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AJ93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO102" sqref="AO102"/>
+      <selection pane="bottomRight" activeCell="AL118" sqref="AL118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5373,15 +5352,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>6.3746395549251229</v>
+        <v>6.1669785566458932</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>28.729301972332845</v>
+        <v>27.793412895619365</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>28.753408791692888</v>
+        <v>27.816734408432978</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15054,7 +15033,7 @@
       </c>
       <c r="AU95" s="58" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.54859999999999998</v>
+        <v>0.55330000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15305,7 +15284,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.4567230000000003E-2</v>
+        <v>6.4769565000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15680,7 +15659,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.12496329232414904</v>
+        <v>0.12862992663574604</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15806,7 +15785,7 @@
       </c>
       <c r="AU101" s="50" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>274134999420</v>
+        <v>265204745850</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15935,7 +15914,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.87503670767585096</v>
+        <v>0.87137007336425398</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16061,7 +16040,7 @@
       </c>
       <c r="AU103" s="38">
         <f>AU99+AU101</f>
-        <v>313283999420</v>
+        <v>304353745850</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16351,7 +16330,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.8804497266204278E-2</v>
+        <v>5.8811717606721159E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16549,7 +16528,7 @@
       <c r="AQ107" s="40"/>
       <c r="AR107" s="43">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>363386280807.55505</v>
+        <v>363308681298.49988</v>
       </c>
       <c r="AS107" s="44" t="s">
         <v>148</v>
@@ -16580,7 +16559,7 @@
       </c>
       <c r="AR108" s="43">
         <f>AR107+AR106</f>
-        <v>375370759379.39423</v>
+        <v>375293159870.33905</v>
       </c>
       <c r="AS108" s="44" t="s">
         <v>144</v>
@@ -16590,7 +16569,7 @@
       </c>
       <c r="AU108" s="48">
         <f>AU105</f>
-        <v>5.8804497266204278E-2</v>
+        <v>5.8811717606721159E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16605,7 +16584,7 @@
       </c>
       <c r="AO110" s="50">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>319154333639.20569</v>
+        <v>319085774312.37927</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16632,7 +16611,7 @@
       </c>
       <c r="AO113" s="50">
         <f>AO110+AO111-AO112</f>
-        <v>291636333639.20569</v>
+        <v>291567774312.37927</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16650,7 +16629,7 @@
       </c>
       <c r="AO115" s="53">
         <f>AO113/AO114</f>
-        <v>67.475480372145768</v>
+        <v>67.459617898996839</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16659,7 +16638,7 @@
       </c>
       <c r="AO116" s="59" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>63.39</v>
+        <v>61.325000000000003</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16668,7 +16647,7 @@
       </c>
       <c r="AO117" s="55">
         <f>AO115/AO116-1</f>
-        <v>6.4449919106259079E-2</v>
+        <v>0.10003453565424936</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Coca Cola.xlsx
+++ b/Consumer/Coca Cola.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C2A2CF-8EDB-7543-9F49-C5987B89E54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11749DC-C84E-254F-B6DB-26E7AFEFF6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,12 +1732,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Quality"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1755,7 +1757,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.4839999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1768,6 +1770,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1895,9 +1899,11 @@
     <v>Powered by Refinitiv</v>
     <v>64.989999999999995</v>
     <v>51.55</v>
-    <v>0.58440000000000003</v>
-    <v>0.21</v>
-    <v>3.5920000000000001E-3</v>
+    <v>0.5796</v>
+    <v>-0.14000000000000001</v>
+    <v>-2.3830000000000001E-3</v>
+    <v>0.06</v>
+    <v>1.024E-3</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Global Ventures; and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Coca-Cola; sparkling flavors; water, sports, coffee and tea; juice, dairy and plant-based beverages; and emerging beverages. It owns and markets six nonalcoholic sparkling soft drink brands, such as Coca-Cola, Sprite, Fanta, Diet Coke /Coca-Cola Light, and Coca-Cola Zero Sugar. Its water, sports, coffee and tea brands include quarius, Ayataka, BODYARMOR, Ciel, Costa, dogadan, Dasani, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Powerade and others. The Company’s juice, dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply. The Company products are available to consumers in more than 200 countries.</v>
     <v>82500</v>
@@ -1905,24 +1911,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
-    <v>58.814999999999998</v>
+    <v>58.75</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45258.680544524999</v>
+    <v>45269.041316932809</v>
     <v>0</v>
-    <v>58.36</v>
-    <v>253654699380</v>
+    <v>58.365000000000002</v>
+    <v>253352060400</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>58.39</v>
-    <v>23.565100000000001</v>
-    <v>58.46</v>
+    <v>58.74</v>
+    <v>23.677900000000001</v>
+    <v>58.74</v>
+    <v>58.6</v>
     <v>58.67</v>
     <v>4323414000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>3051023</v>
-    <v>14078293</v>
+    <v>11178670</v>
+    <v>13181020</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -1954,6 +1961,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1974,6 +1983,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1990,7 +2000,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2001,13 +2011,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2073,13 +2086,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2124,6 +2143,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2131,6 +2153,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -14018,7 +14043,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14071,7 +14096,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>253654699380</v>
+        <v>253352060400</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>201</v>
@@ -14099,14 +14124,14 @@
       </c>
       <c r="I3" s="37">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>230997186872.45407</v>
+        <v>227157267238.4483</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="39">
         <f>Financials!O172*-1/Model!A3</f>
-        <v>3.0687387298663025E-2</v>
+        <v>3.0724044587245047E-2</v>
       </c>
       <c r="L3" s="40" t="s">
         <v>206</v>
@@ -14151,14 +14176,14 @@
       </c>
       <c r="I4" s="47">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>199629570991.9296</v>
+        <v>196244011480.79205</v>
       </c>
       <c r="J4" s="45" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="48" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.5920000000000001E-3</v>
+        <v>-2.3830000000000001E-3</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>213</v>
@@ -14203,14 +14228,14 @@
       </c>
       <c r="I5" s="47">
         <f>I4+G5-G6</f>
-        <v>174893570991.9296</v>
+        <v>171508011480.79205</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="51" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>58.67</v>
+        <v>58.6</v>
       </c>
       <c r="L5" s="52" t="s">
         <v>220</v>
@@ -14230,7 +14255,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
         <f>O20/F10</f>
-        <v>5.5794883502705552</v>
+        <v>5.5728313844529493</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>222</v>
@@ -14258,14 +14283,14 @@
       </c>
       <c r="I6" s="48">
         <f>N25</f>
-        <v>8.5466861909068617E-2</v>
+        <v>8.6489007901024137E-2</v>
       </c>
       <c r="J6" s="45" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="55">
         <f>I5/G4</f>
-        <v>39.932046438073783</v>
+        <v>39.159048786697305</v>
       </c>
       <c r="L6" s="56" t="s">
         <v>226</v>
@@ -14285,14 +14310,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <f>O20/F12</f>
-        <v>21.819759086451612</v>
+        <v>21.793725625806452</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="59">
         <f>F15/A3</f>
-        <v>4.1170142029796762E-2</v>
+        <v>4.1219321380344301E-2</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>229</v>
@@ -14319,7 +14344,7 @@
       </c>
       <c r="K7" s="65">
         <f>K6/K5-1</f>
-        <v>-0.31937878919253826</v>
+        <v>-0.33175684664339067</v>
       </c>
       <c r="L7" s="66" t="s">
         <v>232</v>
@@ -14646,7 +14671,7 @@
       </c>
       <c r="O14" s="84">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.4839999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -14798,7 +14823,7 @@
       </c>
       <c r="O17" s="94">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6922800000000003E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -14881,7 +14906,7 @@
       </c>
       <c r="O20" s="100">
         <f>A3</f>
-        <v>253654699380</v>
+        <v>253352060400</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
@@ -14911,7 +14936,7 @@
       </c>
       <c r="O21" s="100">
         <f>O19+O20</f>
-        <v>293825699380</v>
+        <v>293523060400</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -14939,7 +14964,7 @@
       </c>
       <c r="O22" s="102">
         <f>(O19/O21)</f>
-        <v>0.13671710842436385</v>
+        <v>0.13685807154387383</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -14964,7 +14989,7 @@
       </c>
       <c r="O23" s="103">
         <f>O20/O21</f>
-        <v>0.86328289157563609</v>
+        <v>0.86314192845612614</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -15008,7 +15033,7 @@
       <c r="M25" s="68"/>
       <c r="N25" s="108">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.5466861909068617E-2</v>
+        <v>8.6489007901024137E-2</v>
       </c>
       <c r="O25" s="109"/>
       <c r="P25" s="41"/>
